--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/데이터펼치기(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/데이터펼치기(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section01\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA10B8-FDE0-44A5-A99D-2AA20D53B85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC951AC9-7A80-3344-A670-D5CF941F6AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="8110" xr2:uid="{1D65A70D-76B7-4F8D-B2F8-1F50530F451C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{1D65A70D-76B7-4F8D-B2F8-1F50530F451C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -226,20 +226,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,256 +558,256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A5D5D3-E074-4BC0-AC77-8CE9AA8D75EB}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:9" ht="17"/>
+    <row r="2" spans="1:9" ht="18" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="17"/>
+    <row r="5" spans="1:9" ht="17">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="17">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" ht="17">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>30000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>35000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>28000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>24000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>17000</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>26000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="17">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>9000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>12000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>10000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>8000</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>19000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>34000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:9" ht="17">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>25000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>30000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>25000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>20000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>15000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:9" ht="17">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>8000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>10000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>10000</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>10000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>10000</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>49000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:9" ht="17">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>16000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>19000</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>35800</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>32000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>28200</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>23000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" ht="17">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>20000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>16800</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>27900</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>20000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>12100</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>25000</v>
       </c>
     </row>
